--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_0_1.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_0_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2071030.783613163</v>
+        <v>-2073028.456626008</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>879752.2120980246</v>
+        <v>202064.7765597412</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,7 +674,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>79.83975478324747</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>97.58885250474385</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>7.795141120193705</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -801,7 +801,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034773</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>23.59568114728116</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>33.8099832832604</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>258.4202483134164</v>
       </c>
       <c r="F5" t="n">
-        <v>343.8012194110057</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -953,7 +953,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -1051,31 +1051,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>18.73742857301188</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>10.46499054460276</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,7 +1148,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>68.90297685032048</v>
       </c>
       <c r="Y8" t="n">
-        <v>251.0628412250507</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,7 +1291,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>174.8813118982898</v>
+        <v>174.9442930587128</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.96451678969</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1534,16 +1534,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>117.5251903309968</v>
+        <v>195.2857115280131</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1585,16 +1585,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,16 +1813,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>117.5251903309968</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>187.6396165880434</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1898,7 +1898,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>13.00407538591742</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>201.171051660668</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2087,7 +2087,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722607</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,25 +2239,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,22 +2287,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>135.5535868730195</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2488,13 +2488,13 @@
         <v>77.28915789329058</v>
       </c>
       <c r="G25" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H25" t="n">
         <v>80.78193823789546</v>
       </c>
       <c r="I25" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463153</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.83246227415209</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S25" t="n">
         <v>129.7889198539626</v>
@@ -2530,7 +2530,7 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U25" t="n">
-        <v>218.1054622689367</v>
+        <v>218.1054622689361</v>
       </c>
       <c r="V25" t="n">
         <v>184.0057531941873</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522972</v>
       </c>
       <c r="C28" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D28" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E28" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F28" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G28" t="n">
         <v>98.36167833373692</v>
       </c>
       <c r="H28" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I28" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S28" t="n">
         <v>129.7889198539626</v>
@@ -2767,7 +2767,7 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U28" t="n">
-        <v>218.1054622689365</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V28" t="n">
         <v>184.0057531941873</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,25 +2950,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E31" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373692</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789518</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463133</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415187</v>
       </c>
       <c r="S31" t="n">
-        <v>129.7889198539627</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T31" t="n">
         <v>153.4156709287486</v>
       </c>
       <c r="U31" t="n">
-        <v>218.1054622689365</v>
+        <v>218.1054622689372</v>
       </c>
       <c r="V31" t="n">
         <v>184.0057531941873</v>
@@ -3041,13 +3041,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896903</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463133</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S37" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539625</v>
       </c>
       <c r="T37" t="n">
         <v>153.4156709287486</v>
       </c>
       <c r="U37" t="n">
-        <v>218.1054622689368</v>
+        <v>218.1054622689365</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3509,7 +3509,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3569,7 +3569,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="39">
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789529</v>
       </c>
       <c r="I40" t="n">
         <v>42.28735533463131</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3715,19 +3715,19 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U40" t="n">
-        <v>218.105462268937</v>
+        <v>218.1054622689368</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3916,7 +3916,7 @@
         <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415232</v>
       </c>
       <c r="S43" t="n">
-        <v>129.7889198539622</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T43" t="n">
         <v>153.4156709287486</v>
       </c>
       <c r="U43" t="n">
-        <v>218.1054622689365</v>
+        <v>218.1054622689361</v>
       </c>
       <c r="V43" t="n">
         <v>184.0057531941873</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463131</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S46" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539625</v>
       </c>
       <c r="T46" t="n">
         <v>153.4156709287486</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1117.004887669471</v>
+        <v>2118.304160219349</v>
       </c>
       <c r="C2" t="n">
-        <v>1117.004887669471</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D2" t="n">
-        <v>1117.004887669471</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
-        <v>1117.004887669471</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>706.0189828798632</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>288.0551747780501</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2598.574492528582</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2379.939825500645</v>
       </c>
       <c r="U2" t="n">
-        <v>2267.209817970484</v>
+        <v>2126.178040138736</v>
       </c>
       <c r="V2" t="n">
-        <v>2267.209817970484</v>
+        <v>2126.178040138736</v>
       </c>
       <c r="W2" t="n">
-        <v>2267.209817970484</v>
+        <v>2126.178040138736</v>
       </c>
       <c r="X2" t="n">
-        <v>1893.744059709404</v>
+        <v>2118.304160219349</v>
       </c>
       <c r="Y2" t="n">
-        <v>1503.604727733592</v>
+        <v>2118.304160219349</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4425,13 +4425,13 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>200.8329293182748</v>
+        <v>2159.291999533505</v>
       </c>
       <c r="C4" t="n">
-        <v>200.8329293182748</v>
+        <v>2159.291999533505</v>
       </c>
       <c r="D4" t="n">
-        <v>200.8329293182748</v>
+        <v>2159.291999533505</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>2159.291999533505</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>2159.291999533505</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>2159.291999533505</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>2159.291999533505</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245969</v>
+        <v>2482.860667836385</v>
       </c>
       <c r="T4" t="n">
-        <v>513.8405610245969</v>
+        <v>2448.709169570465</v>
       </c>
       <c r="U4" t="n">
-        <v>224.6669506791649</v>
+        <v>2448.709169570465</v>
       </c>
       <c r="V4" t="n">
-        <v>224.6669506791649</v>
+        <v>2448.709169570465</v>
       </c>
       <c r="W4" t="n">
-        <v>224.6669506791649</v>
+        <v>2159.291999533505</v>
       </c>
       <c r="X4" t="n">
-        <v>224.6669506791649</v>
+        <v>2159.291999533505</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.6669506791649</v>
+        <v>2159.291999533505</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1330.912423534854</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="C5" t="n">
-        <v>1330.912423534854</v>
+        <v>1624.583944532628</v>
       </c>
       <c r="D5" t="n">
-        <v>972.6467249281038</v>
+        <v>1624.583944532628</v>
       </c>
       <c r="E5" t="n">
-        <v>972.6467249281038</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2048.575150942547</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>1717.512263598976</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W5" t="n">
-        <v>1717.512263598976</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X5" t="n">
-        <v>1717.512263598976</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y5" t="n">
-        <v>1717.512263598976</v>
+        <v>1993.54646147304</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4650,19 +4650,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>200.8329293182748</v>
+        <v>517.0636002298166</v>
       </c>
       <c r="C7" t="n">
-        <v>200.8329293182748</v>
+        <v>517.0636002298166</v>
       </c>
       <c r="D7" t="n">
-        <v>200.8329293182748</v>
+        <v>366.9469608174809</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>366.9469608174809</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>366.9469608174809</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>366.9469608174809</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>209.198588250011</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>72.86967734865928</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>717.5582866866337</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>717.5582866866337</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>490.2500993552354</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>490.2500993552354</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V7" t="n">
-        <v>490.2500993552354</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W7" t="n">
-        <v>200.8329293182748</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X7" t="n">
-        <v>200.8329293182748</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y7" t="n">
-        <v>200.8329293182748</v>
+        <v>698.7120650600564</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2090.781606227855</v>
+        <v>1791.109440255352</v>
       </c>
       <c r="C8" t="n">
-        <v>1721.819089287443</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D8" t="n">
-        <v>1363.553390680693</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W8" t="n">
-        <v>2344.380435748108</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X8" t="n">
-        <v>2344.380435748108</v>
+        <v>2177.709280319473</v>
       </c>
       <c r="Y8" t="n">
-        <v>2090.781606227855</v>
+        <v>2177.709280319473</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4899,25 +4899,25 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>369.8327295799424</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="C10" t="n">
-        <v>369.8327295799424</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D10" t="n">
-        <v>369.8327295799424</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -5005,7 +5005,7 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>551.4811944101821</v>
+        <v>551.4175770764215</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155881</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5036,34 +5036,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231263</v>
@@ -5115,28 +5115,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571608</v>
+        <v>664.5909712050459</v>
       </c>
       <c r="L12" t="n">
-        <v>1288.325632214049</v>
+        <v>894.5540770733951</v>
       </c>
       <c r="M12" t="n">
-        <v>1595.645765494011</v>
+        <v>1214.889396603097</v>
       </c>
       <c r="N12" t="n">
-        <v>1925.508393158043</v>
+        <v>1559.410052240715</v>
       </c>
       <c r="O12" t="n">
-        <v>2371.535469249458</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
-        <v>2554.178946862809</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,46 +5173,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>392.0201325405893</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C13" t="n">
-        <v>392.0201325405893</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D13" t="n">
-        <v>392.0201325405893</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028583</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028583</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5224,25 +5224,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1380.203957092249</v>
+        <v>1301.657976085162</v>
       </c>
       <c r="T13" t="n">
-        <v>1380.203957092249</v>
+        <v>1301.657976085162</v>
       </c>
       <c r="U13" t="n">
-        <v>1091.075318305807</v>
+        <v>1012.52933729872</v>
       </c>
       <c r="V13" t="n">
-        <v>1091.075318305807</v>
+        <v>757.8448490928333</v>
       </c>
       <c r="W13" t="n">
-        <v>801.6581482688464</v>
+        <v>468.4276790558727</v>
       </c>
       <c r="X13" t="n">
-        <v>573.668597370829</v>
+        <v>468.4276790558727</v>
       </c>
       <c r="Y13" t="n">
-        <v>573.668597370829</v>
+        <v>247.6350999123426</v>
       </c>
     </row>
     <row r="14">
@@ -5270,16 +5270,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5294,19 +5294,19 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
         <v>4262.357857465301</v>
@@ -5352,25 +5352,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
         <v>263.5382936126481</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571608</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L15" t="n">
-        <v>904.39166832551</v>
+        <v>1002.792923427374</v>
       </c>
       <c r="M15" t="n">
-        <v>1211.711801605471</v>
+        <v>1323.128242957076</v>
       </c>
       <c r="N15" t="n">
-        <v>1541.574429269504</v>
+        <v>1667.648898594694</v>
       </c>
       <c r="O15" t="n">
-        <v>1821.114494488201</v>
+        <v>1916.402312678656</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>392.0201325405893</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="C16" t="n">
-        <v>392.0201325405893</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="D16" t="n">
-        <v>392.0201325405893</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1380.203957092249</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1380.203957092249</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1091.075318305807</v>
+        <v>1309.381304307353</v>
       </c>
       <c r="V16" t="n">
-        <v>1091.075318305807</v>
+        <v>1054.696816101466</v>
       </c>
       <c r="W16" t="n">
-        <v>801.6581482688464</v>
+        <v>765.2796460645058</v>
       </c>
       <c r="X16" t="n">
-        <v>573.668597370829</v>
+        <v>537.2900951664884</v>
       </c>
       <c r="Y16" t="n">
-        <v>573.668597370829</v>
+        <v>537.2900951664884</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155881</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5525,13 +5525,13 @@
         <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5540,25 +5540,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5592,28 +5592,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126481</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571608</v>
+        <v>280.6570073165065</v>
       </c>
       <c r="L18" t="n">
-        <v>904.39166832551</v>
+        <v>894.5540770733951</v>
       </c>
       <c r="M18" t="n">
-        <v>904.39166832551</v>
+        <v>1214.889396603097</v>
       </c>
       <c r="N18" t="n">
-        <v>1708.803246589661</v>
+        <v>1559.410052240715</v>
       </c>
       <c r="O18" t="n">
-        <v>1957.556660673623</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4347.338425602348</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C19" t="n">
-        <v>4334.202995919603</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D19" t="n">
-        <v>4184.086356507268</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E19" t="n">
-        <v>4036.173262924875</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F19" t="n">
-        <v>3889.283315426964</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>4749.779469576118</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>4749.779469576118</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V19" t="n">
-        <v>4749.779469576118</v>
+        <v>782.7991340754431</v>
       </c>
       <c r="W19" t="n">
-        <v>4749.779469576118</v>
+        <v>493.3819640384826</v>
       </c>
       <c r="X19" t="n">
-        <v>4749.779469576118</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="Y19" t="n">
-        <v>4528.986890432588</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="20">
@@ -5729,31 +5729,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5771,28 +5771,28 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5826,31 +5826,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126481</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>388.8958536704856</v>
+        <v>488.6335221749971</v>
       </c>
       <c r="L21" t="n">
-        <v>1002.792923427374</v>
+        <v>1102.530591931886</v>
       </c>
       <c r="M21" t="n">
-        <v>1323.128242957076</v>
+        <v>1422.865911461588</v>
       </c>
       <c r="N21" t="n">
-        <v>1691.441695849499</v>
+        <v>1767.386567099205</v>
       </c>
       <c r="O21" t="n">
-        <v>2360.905457152158</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P21" t="n">
-        <v>2543.548934765509</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4503.139178847509</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>4334.202995919602</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>4184.086356507267</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>4036.173262924874</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>3889.283315426963</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>4860.854573014291</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="T22" t="n">
-        <v>4860.854573014291</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U22" t="n">
-        <v>4860.854573014291</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V22" t="n">
-        <v>4860.854573014291</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W22" t="n">
-        <v>4860.854573014291</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X22" t="n">
-        <v>4723.931757991039</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>4503.139178847509</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5966,46 +5966,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6020,16 +6020,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6066,28 +6066,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126481</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571608</v>
+        <v>246.2867756623457</v>
       </c>
       <c r="L24" t="n">
-        <v>904.39166832551</v>
+        <v>860.1838454192343</v>
       </c>
       <c r="M24" t="n">
-        <v>1224.726987855212</v>
+        <v>1180.519164948936</v>
       </c>
       <c r="N24" t="n">
-        <v>1224.726987855212</v>
+        <v>1559.410052240715</v>
       </c>
       <c r="O24" t="n">
-        <v>1894.190749157871</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108338</v>
       </c>
       <c r="C25" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229679</v>
       </c>
       <c r="D25" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506732</v>
       </c>
       <c r="E25" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083212</v>
       </c>
       <c r="F25" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504519</v>
       </c>
       <c r="G25" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H25" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982975</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K25" t="n">
         <v>394.6863306254957</v>
@@ -6178,19 +6178,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U25" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V25" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W25" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X25" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045214</v>
       </c>
       <c r="Y25" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010324</v>
       </c>
     </row>
     <row r="26">
@@ -6203,70 +6203,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6279,16 +6279,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C27" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D27" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E27" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
         <v>358.2718071316295</v>
@@ -6300,31 +6300,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K27" t="n">
-        <v>222.5746515181233</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L27" t="n">
-        <v>222.5746515181233</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M27" t="n">
-        <v>618.7675319762811</v>
+        <v>1847.655958041207</v>
       </c>
       <c r="N27" t="n">
-        <v>1423.179110240432</v>
+        <v>2192.176613678825</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.642871543091</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6339,7 +6339,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V27" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W27" t="n">
         <v>1571.258395043133</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C28" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D28" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E28" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F28" t="n">
         <v>320.8847398504512</v>
@@ -6379,7 +6379,7 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>177.05035515254</v>
@@ -6388,7 +6388,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L28" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M28" t="n">
         <v>1048.866260860496</v>
@@ -6418,16 +6418,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V28" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W28" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X28" t="n">
-        <v>924.2611010045207</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y28" t="n">
-        <v>772.2886129010317</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="29">
@@ -6449,46 +6449,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155893</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514099</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C30" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D30" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
         <v>358.2718071316295</v>
@@ -6537,31 +6537,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>674.4285624571608</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M30" t="n">
-        <v>783.5490372870998</v>
+        <v>2030.299435654558</v>
       </c>
       <c r="N30" t="n">
-        <v>1128.069692924718</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O30" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6576,7 +6576,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W30" t="n">
         <v>1571.258395043133</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F31" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G31" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H31" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>177.05035515254</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6765,37 +6765,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028583</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>235.383741668065</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>235.383741668065</v>
+        <v>904.39166832551</v>
       </c>
       <c r="M33" t="n">
-        <v>1003.751888060526</v>
+        <v>1387.765035414674</v>
       </c>
       <c r="N33" t="n">
-        <v>1808.163466324677</v>
+        <v>2192.176613678825</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6853,7 +6853,7 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
@@ -6862,7 +6862,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6962,19 +6962,19 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
         <v>3205.060556590537</v>
@@ -7023,16 +7023,16 @@
         <v>1288.32563221405</v>
       </c>
       <c r="M36" t="n">
-        <v>1749.767368598658</v>
+        <v>1847.655958041207</v>
       </c>
       <c r="N36" t="n">
-        <v>2554.178946862809</v>
+        <v>2192.176613678825</v>
       </c>
       <c r="O36" t="n">
-        <v>2554.178946862809</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P36" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7078,13 +7078,13 @@
         <v>478.0475988506727</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G37" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
@@ -7093,16 +7093,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525403</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254961</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649695</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
         <v>1386.860941116388</v>
@@ -7114,13 +7114,13 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T37" t="n">
         <v>1710.200584771663</v>
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7217,7 +7217,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7251,28 +7251,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>306.3284467737875</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>553.0935746802515</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M39" t="n">
-        <v>1321.461721072713</v>
+        <v>1847.655958041207</v>
       </c>
       <c r="N39" t="n">
-        <v>1651.324348736746</v>
+        <v>2192.176613678825</v>
       </c>
       <c r="O39" t="n">
-        <v>2320.788110039405</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.810590821615</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7330,13 +7330,13 @@
         <v>97.21709146028586</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7369,13 +7369,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045207</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010317</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="41">
@@ -7400,7 +7400,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7488,28 +7488,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>412.6079778147081</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L42" t="n">
-        <v>1014.58082112442</v>
+        <v>836.4717212750119</v>
       </c>
       <c r="M42" t="n">
-        <v>1782.948967516882</v>
+        <v>1604.839867667473</v>
       </c>
       <c r="N42" t="n">
-        <v>2112.811595180915</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="O42" t="n">
-        <v>2112.811595180915</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7567,7 +7567,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
         <v>394.6863306254957</v>
@@ -7634,10 +7634,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822462</v>
@@ -7649,10 +7649,10 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7673,10 +7673,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
         <v>4262.3578574653</v>
@@ -7725,25 +7725,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>388.8958536704856</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L45" t="n">
-        <v>388.8958536704856</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M45" t="n">
-        <v>754.998473976564</v>
+        <v>1609.589088435861</v>
       </c>
       <c r="N45" t="n">
-        <v>1559.410052240715</v>
+        <v>1954.109744073479</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229669</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F46" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G46" t="n">
         <v>221.5295092103129</v>
@@ -7804,13 +7804,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7825,13 +7825,13 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
         <v>1710.200584771663</v>
@@ -7849,7 +7849,7 @@
         <v>924.2611010045205</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
   </sheetData>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013773</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013773</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013773</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8775,13 +8775,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>168.1686978512299</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -9012,13 +9012,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9249,7 +9249,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,10 +9714,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9726,7 +9726,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9738,7 +9738,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9957,7 +9957,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -9975,7 +9975,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10194,10 +10194,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>252.3567357704416</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
@@ -10206,10 +10206,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10431,7 +10431,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10440,13 +10440,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10677,13 +10677,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10899,28 +10899,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>18.73797368291335</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11139,25 +11139,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>358.7956721244931</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11379,7 +11379,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -11391,10 +11391,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22544,10 +22544,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>129.0849513019046</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22562,7 +22562,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>244.0830179811097</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22610,7 +22610,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>361.9359595582753</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22702,13 +22702,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>156.2362990346561</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -22720,13 +22720,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22750,7 +22750,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -22768,10 +22768,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23422,16 +23422,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23464,7 +23464,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>80.39561965260647</v>
+        <v>2.635098455590111</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -23473,16 +23473,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23659,7 +23659,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,16 +23701,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>80.39561965260647</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>98.59773581053395</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>154.2427457127104</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>50.96659166315996</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24127,25 +24127,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,22 +24175,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>79.43092547709136</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>90.15606851601763</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>18391.92434782021</v>
+        <v>18391.92434782022</v>
       </c>
       <c r="C2" t="n">
-        <v>20526.04424660707</v>
+        <v>20526.04424660708</v>
       </c>
       <c r="D2" t="n">
-        <v>20526.04424660707</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="E2" t="n">
-        <v>19551.45298688545</v>
+        <v>19551.45298688544</v>
       </c>
       <c r="F2" t="n">
-        <v>19551.45298688543</v>
+        <v>19551.45298688544</v>
       </c>
       <c r="G2" t="n">
         <v>19551.45298688544</v>
       </c>
       <c r="H2" t="n">
-        <v>19551.45298688544</v>
+        <v>19551.45298688545</v>
       </c>
       <c r="I2" t="n">
-        <v>20526.04424660712</v>
+        <v>20526.0442466071</v>
       </c>
       <c r="J2" t="n">
-        <v>20526.04424660712</v>
+        <v>20526.04424660713</v>
       </c>
       <c r="K2" t="n">
         <v>20526.0442466071</v>
       </c>
       <c r="L2" t="n">
-        <v>20526.04424660713</v>
+        <v>20526.04424660711</v>
       </c>
       <c r="M2" t="n">
-        <v>20526.04424660712</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="N2" t="n">
         <v>20526.04424660708</v>
       </c>
       <c r="O2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660712</v>
       </c>
       <c r="P2" t="n">
         <v>20526.04424660712</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,10 +26381,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>54505.51210371251</v>
+        <v>54505.51210371254</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
@@ -26399,7 +26399,7 @@
         <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
-        <v>54505.51210371254</v>
+        <v>54505.51210371251</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90335.72423892135</v>
+        <v>90335.72423892139</v>
       </c>
       <c r="C4" t="n">
         <v>139059.1391806191</v>
@@ -26424,16 +26424,16 @@
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905759339</v>
+        <v>787.7936905759103</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905759314</v>
+        <v>787.7936905759184</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905759184</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="I4" t="n">
         <v>23206.58093189635</v>
@@ -26442,22 +26442,22 @@
         <v>23206.58093189635</v>
       </c>
       <c r="K4" t="n">
+        <v>23206.58093189636</v>
+      </c>
+      <c r="L4" t="n">
         <v>23206.58093189635</v>
       </c>
-      <c r="L4" t="n">
-        <v>23206.58093189641</v>
-      </c>
       <c r="M4" t="n">
-        <v>23206.58093189632</v>
+        <v>23206.58093189635</v>
       </c>
       <c r="N4" t="n">
-        <v>23206.58093189635</v>
+        <v>23206.58093189636</v>
       </c>
       <c r="O4" t="n">
-        <v>23206.58093189635</v>
+        <v>23206.58093189634</v>
       </c>
       <c r="P4" t="n">
-        <v>23206.58093189635</v>
+        <v>23206.58093189636</v>
       </c>
     </row>
     <row r="5">
@@ -26476,28 +26476,28 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="J5" t="n">
+        <v>97715.10582002539</v>
+      </c>
+      <c r="K5" t="n">
+        <v>97715.10582002539</v>
+      </c>
+      <c r="L5" t="n">
         <v>97715.1058200254</v>
-      </c>
-      <c r="K5" t="n">
-        <v>97715.1058200254</v>
-      </c>
-      <c r="L5" t="n">
-        <v>97715.10582002538</v>
       </c>
       <c r="M5" t="n">
         <v>97715.1058200254</v>
@@ -26519,37 +26519,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-744770.7571690549</v>
+        <v>-744984.1691589338</v>
       </c>
       <c r="C6" t="n">
-        <v>-201392.1729974215</v>
+        <v>-201392.1729974214</v>
       </c>
       <c r="D6" t="n">
         <v>-201392.1729974214</v>
       </c>
       <c r="E6" t="n">
-        <v>-598383.7031293029</v>
+        <v>-598481.1622552753</v>
       </c>
       <c r="F6" t="n">
-        <v>-73223.6666524071</v>
+        <v>-73321.12577837927</v>
       </c>
       <c r="G6" t="n">
-        <v>-73223.66665240705</v>
+        <v>-73321.12577837921</v>
       </c>
       <c r="H6" t="n">
-        <v>-73223.66665240712</v>
+        <v>-73321.12577837921</v>
       </c>
       <c r="I6" t="n">
-        <v>-154901.1546090271</v>
+        <v>-154901.1546090272</v>
       </c>
       <c r="J6" t="n">
-        <v>-276818.8616979077</v>
+        <v>-276818.8616979076</v>
       </c>
       <c r="K6" t="n">
-        <v>-100395.6425053147</v>
+        <v>-100395.6425053146</v>
       </c>
       <c r="L6" t="n">
-        <v>-100395.6425053145</v>
+        <v>-100395.6425053146</v>
       </c>
       <c r="M6" t="n">
         <v>-235196.6577391518</v>
@@ -26701,31 +26701,31 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>68.13189012964067</v>
       </c>
       <c r="J2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L2" t="n">
         <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964064</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
         <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
@@ -26744,28 +26744,28 @@
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541001</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
         <v>830.3824054541003</v>
@@ -26923,25 +26923,25 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964064</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27160,10 +27160,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,13 +27379,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>236.187940469103</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>76.82686030422765</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>191.2251221748239</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>123.5101217588453</v>
       </c>
       <c r="F5" t="n">
-        <v>63.07482633070572</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27673,7 +27673,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27771,31 +27771,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>26.46253061552511</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>136.2002014355551</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27834,7 +27834,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27913,13 +27913,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>300.8281238281485</v>
       </c>
       <c r="Y8" t="n">
-        <v>135.1750974310029</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28011,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28023,7 +28023,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>43.70334145380497</v>
+        <v>43.64036029338197</v>
       </c>
     </row>
     <row r="11">
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28375,13 +28375,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28807,7 +28807,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="32">
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30289,7 +30289,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="41">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>35.71704454958012</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31370,7 +31370,7 @@
         <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>56.98116194942293</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
         <v>205.8702969983122</v>
@@ -31385,7 +31385,7 @@
         <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>50.44659727034983</v>
@@ -31619,10 +31619,10 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>35.71704454958012</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>50.44659727034983</v>
@@ -31759,40 +31759,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,34 +31832,34 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>278.479916701576</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358984</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855525</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>100.1578341526431</v>
@@ -31868,7 +31868,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31932,7 +31932,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31944,10 +31944,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
         <v>0.08167695791351813</v>
@@ -32078,22 +32078,22 @@
         <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855525</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>327.9859757160327</v>
+        <v>231.7356543115325</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32233,40 +32233,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32306,43 +32306,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>58.66904626099313</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>179.4282198748994</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32406,7 +32406,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32418,10 +32418,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
         <v>0.08167695791351813</v>
@@ -32470,40 +32470,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32543,43 +32543,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>268.7463339968423</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>24.03312854020652</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855525</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32643,7 +32643,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32655,10 +32655,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
         <v>0.08167695791351813</v>
@@ -32707,40 +32707,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540889</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32780,31 +32780,31 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>34.71740571127339</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855525</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>243.4341911029318</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
         <v>227.9948068710956</v>
@@ -32816,7 +32816,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32880,7 +32880,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
@@ -32892,10 +32892,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
         <v>0.08167695791351813</v>
@@ -32944,40 +32944,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130947006</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33017,31 +33017,31 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>76.62379891763237</v>
+        <v>409.410311565473</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855525</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458548</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -33053,7 +33053,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33117,7 +33117,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
@@ -33129,10 +33129,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
         <v>0.08167695791351813</v>
@@ -33181,40 +33181,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041505</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33254,10 +33254,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215733</v>
@@ -33266,31 +33266,31 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>425.8974584957645</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855525</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458548</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33354,7 +33354,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
@@ -33366,10 +33366,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
         <v>0.08167695791351813</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,37 +33497,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>12.93847489893108</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>164.6848965247098</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>142.5317341968757</v>
+        <v>241.4090972701574</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -33980,22 +33980,22 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>241.4090972701574</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>33.17612723677465</v>
@@ -34208,10 +34208,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>387.8120847358985</v>
@@ -34220,19 +34220,19 @@
         <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>155.4670306417171</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>33.17612723677465</v>
@@ -34369,7 +34369,7 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
         <v>526.796267130444</v>
@@ -34387,7 +34387,7 @@
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647499</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
@@ -34445,28 +34445,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>46.2295967438148</v>
+        <v>168.9387261055273</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>100.1578341526431</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35018,7 +35018,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730079</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35267,10 +35267,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>405.1037147397956</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980127</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>450.5324000923379</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35574,7 +35574,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35586,7 +35586,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980127</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
-        <v>512.4743369416396</v>
+        <v>416.2240155371395</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>185.2928442992127</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O18" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
-        <v>363.9165811005063</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686862</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
@@ -36048,7 +36048,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
@@ -36060,7 +36060,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>395.3701320350619</v>
       </c>
       <c r="L21" t="n">
         <v>620.0980502594834</v>
@@ -36209,19 +36209,19 @@
         <v>323.5710298279816</v>
       </c>
       <c r="N21" t="n">
-        <v>372.0337908004267</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686862</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299105</v>
@@ -36285,7 +36285,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056036</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>382.7180679714936</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9225523285387</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686862</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K25" t="n">
         <v>219.8343186595512</v>
@@ -36522,7 +36522,7 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M25" t="n">
-        <v>342.4417313086131</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N25" t="n">
         <v>341.4087679352443</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109137</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>400.194828745614</v>
+        <v>732.9813413934546</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686862</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K28" t="n">
         <v>219.8343186595512</v>
@@ -36759,7 +36759,7 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M28" t="n">
-        <v>342.4417313086131</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N28" t="n">
         <v>341.4087679352443</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303347</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,25 +36914,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>110.2227018484233</v>
+        <v>749.4684883237461</v>
       </c>
       <c r="N30" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686862</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K31" t="n">
         <v>219.8343186595512</v>
@@ -36996,7 +36996,7 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M31" t="n">
-        <v>342.4417313086131</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N31" t="n">
         <v>341.4087679352443</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>139.5622729371507</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004661</v>
+        <v>488.2559263526914</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37391,19 +37391,19 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>466.1027640248573</v>
+        <v>564.980127098139</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>169.3134122708526</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>564.980127098139</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,10 +37713,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>608.0533770805174</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>503.4676929019373</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38017,7 +38017,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
@@ -38035,7 +38035,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R44" t="n">
         <v>59.8253897034981</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>369.8006265717964</v>
+        <v>492.5097559335089</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O45" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K46" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L46" t="n">
         <v>318.3460770095692</v>
